--- a/src/test/resources/testdata/DEVTEST-IB_Validation_Report.xlsx
+++ b/src/test/resources/testdata/DEVTEST-IB_Validation_Report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.udhaya.suriyan\Automation_GIT\ART_TestAutomationCode_11\src\test\resources\testdata\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="35">
   <si>
     <t>NA</t>
   </si>
@@ -145,7 +145,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,9 +625,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="11.90625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.7265625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="8.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="11.90625" collapsed="true"/>
+    <col min="3" max="16384" style="2" width="8.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
@@ -825,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
@@ -846,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>2</v>
@@ -867,10 +868,10 @@
         <v>2</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
@@ -878,28 +879,28 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>0</v>
@@ -920,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>2</v>
@@ -985,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
@@ -1002,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>2</v>
@@ -1011,13 +1012,13 @@
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>2</v>
@@ -1051,15 +1052,39 @@
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
       <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
       <c r="I8" s="2" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="L8" t="s">
+        <v>2</v>
+      </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1074,6 +1099,12 @@
       </c>
       <c r="Q8" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
